--- a/upload/xls/import_goods.xlsx
+++ b/upload/xls/import_goods.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
   <si>
     <t>商品名称</t>
   </si>
@@ -38,32 +38,55 @@
 属性名:属性值|附加值|库存</t>
   </si>
   <si>
-    <t>商品列表图（140*140）</t>
+    <t xml:space="preserve">商品列表图（140*140）
+</t>
   </si>
   <si>
     <t>商品banner(可多图375*375)</t>
   </si>
   <si>
-    <t>商品详细信息</t>
+    <t>商品详细信息  +（需在后台使用网页编辑器编辑）</t>
   </si>
   <si>
-    <t>测试商品1</t>
+    <t>Leica/徕卡 M系列Typ240</t>
   </si>
   <si>
-    <t>德国WMF福腾堡大马士革刀三件套</t>
+    <t>Leica/徕卡</t>
   </si>
   <si>
-    <t>工具</t>
+    <t>数码</t>
   </si>
   <si>
-    <t>颜色:红色|200|1200,
-白色|-50|147.
-内存:32G|0|1245,
-64G|500|2145.
-版本:美版|600|1234</t>
+    <t>颜色:黑|0|1200*
+套餐:标配|0|124&amp;
+套餐一|500|2145&amp;
+套餐二|100|235</t>
   </si>
   <si>
-    <t>&lt;p&gt;商品品牌：innisfree 悦诗风吟品牌国：韩国产品类型：润唇膏适用季节：四季通用功能：润唇　保湿滋润　修护　锁水适合肤质：任何肤质人群：通用适用部位：唇部质地：膏状品名：innisfree 悦诗风吟 油菜花蜜润唇膏 平滑角质 3.5克采购地：韩国产地：韩国保质期：3年&lt;/p&gt;</t>
+    <t>&lt;div id="description" class="J_DetailSection tshop-psm tshop-psm-bdetaildes"&gt;
+	&lt;h4 class="hd"&gt;商品详情&lt;/h4&gt;
+        &lt;div class="content ke-post" style="height: auto;"&gt;&lt;p&gt;&lt;a href="https://detail.tmall.com/item.htm?id=539963894441&amp;amp;sku_properties=5919063:6536025" target="_blank"&gt;&lt;img align="absmiddle" src="https://img.alicdn.com/imgextra/i2/2874484355/TB2OdpXXYVkpuFjSspcXXbSMVXa_!!2874484355.jpg" class="img-ks-lazyload"&gt;&lt;/a&gt;&lt;/p&gt; &lt;p&gt;&lt;img align="absmiddle" src="https://img.alicdn.com/imgextra/i4/2874484355/TB259MnXgGI.eBjSspbXXcWoVXa_!!2874484355.jpg" class="img-ks-lazyload"&gt;&lt;img align="absmiddle" src="https://img.alicdn.com/imgextra/i3/2874484355/TB2wckNXk5M.eBjSZFrXXXPgVXa_!!2874484355.jpg" class="img-ks-lazyload"&gt;&lt;img align="absmiddle" src="https://img.alicdn.com/imgextra/i2/2874484355/TB2n6ALXo5O.eBjSZFxXXaaJFXa_!!2874484355.jpg" class="img-ks-lazyload"&gt;&lt;img align="absmiddle" src="https://img.alicdn.com/imgextra/i3/2874484355/TB2WScmXheI.eBjSsplXXX6GFXa_!!2874484355.jpg" class="img-ks-lazyload"&gt;&lt;img align="absmiddle" src="https://img.alicdn.com/imgextra/i3/2874484355/TB2dYMnXmuJ.eBjy0FgXXXBBXXa_!!2874484355.jpg" class="img-ks-lazyload"&gt;&lt;img align="absmiddle" src="https://img.alicdn.com/imgextra/i3/2874484355/TB2rG.oXbOJ.eBjy1XaXXbNupXa_!!2874484355.jpg" class="img-ks-lazyload"&gt;&lt;img align="absmiddle" src="https://img.alicdn.com/imgextra/i4/2874484355/TB23fQnXg9J.eBjSspeXXXKWpXa_!!2874484355.jpg" class="img-ks-lazyload"&gt;&lt;img align="absmiddle" src="https://img.alicdn.com/imgextra/i4/2874484355/TB2xUQoXhuI.eBjy0FdXXXgbVXa_!!2874484355.jpg" class="img-ks-lazyload"&gt;&lt;img align="absmiddle" src="//img-tmdetail.alicdn.com/tps/i3/T1BYd_XwFcXXb9RTPq-90-90.png" data-ks-lazyload="https://img.alicdn.com/imgextra/i4/2874484355/TB2xTglXb1K.eBjSsphXXcJOXXa_!!2874484355.jpg"&gt;&lt;img align="absmiddle" src="//img-tmdetail.alicdn.com/tps/i3/T1BYd_XwFcXXb9RTPq-90-90.png" data-ks-lazyload="https://img.alicdn.com/imgextra/i3/2874484355/TB2qfUoXl9J.eBjy0FoXXXyvpXa_!!2874484355.jpg"&gt;&lt;img align="absmiddle" src="//img-tmdetail.alicdn.com/tps/i3/T1BYd_XwFcXXb9RTPq-90-90.png" data-ks-lazyload="https://img.alicdn.com/imgextra/i1/2874484355/TB2GOMLXXOP.eBjSZFHXXXQnpXa_!!2874484355.jpg"&gt;&lt;img align="absmiddle" src="//img-tmdetail.alicdn.com/tps/i3/T1BYd_XwFcXXb9RTPq-90-90.png" data-ks-lazyload="https://img.alicdn.com/imgextra/i4/2874484355/TB2JD.LXoOO.eBjSZFLXXcxmXXa_!!2874484355.jpg"&gt;&lt;img align="absmiddle" src="//img-tmdetail.alicdn.com/tps/i3/T1BYd_XwFcXXb9RTPq-90-90.png" data-ks-lazyload="https://img.alicdn.com/imgextra/i4/2874484355/TB2jpELXoWO.eBjSZPcXXbopVXa_!!2874484355.jpg"&gt;&lt;img align="absmiddle" src="//img-tmdetail.alicdn.com/tps/i3/T1BYd_XwFcXXb9RTPq-90-90.png" data-ks-lazyload="https://img.alicdn.com/imgextra/i1/2874484355/TB2XJ3nXmiJ.eBjSspiXXbqAFXa_!!2874484355.jpg"&gt;&lt;img align="absmiddle" src="//img-tmdetail.alicdn.com/tps/i3/T1BYd_XwFcXXb9RTPq-90-90.png" data-ks-lazyload="https://img.alicdn.com/imgextra/i1/2874484355/TB2gHoOXhaK.eBjSZFBXXagMXXa_!!2874484355.jpg"&gt;&lt;img align="absmiddle" src="//img-tmdetail.alicdn.com/tps/i3/T1BYd_XwFcXXb9RTPq-90-90.png" data-ks-lazyload="https://img.alicdn.com/imgextra/i1/2874484355/TB2GmUlXb5K.eBjy0FfXXbApVXa_!!2874484355.jpg"&gt;&lt;/p&gt;&lt;/div&gt;
+ &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Apple/苹果 iPhone 7 全网通4G智能手机 原封国行</t>
+  </si>
+  <si>
+    <t>Apple/苹果</t>
+  </si>
+  <si>
+    <t>机身颜色:黑色|200|1200&amp;
+银色|-50|147*
+存储容量:32G|0|1245&amp;
+64G|500|2145*
+版本:iPhone7|0|80&amp;
+iPhone7 Plus|2000|120*
+网络类型:中国移动定制|-300|65&amp;
+无需合约版|0|5356</t>
+  </si>
+  <si>
+    <t>&lt;div class="content ke-post" style="height: auto;"&gt;&lt;p&gt;&lt;a href="https://suning.tmall.com/p/rd421910.htm" target="_blank"&gt;&lt;/a&gt;&lt;a href="https://suning.tmall.com/p/rd421910.htm" target="_blank"&gt;&lt;/a&gt;&lt;/p&gt; &lt;p&gt;&lt;a href="https://detail.tmall.com/item.htm?id=540002439869&amp;amp;spm=0.0.0.0.qHknmg&amp;amp;skuId=3237259548914" target="_blank"&gt;&lt;img align="absmiddle" src="https://img.alicdn.com/imgextra/i3/2616970884/TB2qAYvaxXlpuFjSsphXXbJOXXa-2616970884.jpg" class="img-ks-lazyload"&gt;&lt;/a&gt;&lt;/p&gt; &lt;p&gt;&lt;a href="https://suning.tmall.com/p/rd421910.htm" style="line-height: 1.5;" target="_blank"&gt;&lt;img align="absmiddle" src="https://img.alicdn.com/imgextra/i2/2616970884/TB270qxaH1J.eBjy1zeXXX9kVXa-2616970884.jpg" class="img-ks-lazyload"&gt;&lt;/a&gt;&lt;img align="absmiddle" src="https://img.alicdn.com/imgextra/i4/2616970884/TB2fmiublyN.eBjSZFkXXb8YFXa-2616970884.jpg" style="line-height: 1.5;" class="img-ks-lazyload"&gt;&lt;img align="absmiddle" src="https://img.alicdn.com/imgextra/i3/2616970884/TB2MgcXXheI.eBjSsplXXX6GFXa-2616970884.jpg" style="line-height: 1.5;" class="img-ks-lazyload"&gt;&lt;img align="absmiddle" src="https://img.alicdn.com/imgextra/i4/2616970884/TB2E3D_XoHB11BjSspeXXan0FXa-2616970884.jpg" style="line-height: 1.5;" class="img-ks-lazyload"&gt;&lt;img align="absmiddle" src="https://img.alicdn.com/imgextra/i1/2616970884/TB2Q5ZXXmjz11Bjy0FnXXcnxXXa-2616970884.jpg" style="line-height: 1.5;" class="img-ks-lazyload"&gt;&lt;img align="absmiddle" src="https://img.alicdn.com/imgextra/i3/2616970884/TB2c6UXXi2A11Bjy0FdXXbPwVXa-2616970884.jpg" style="line-height: 1.5;" class="img-ks-lazyload"&gt;&lt;img align="absmiddle" src="https://img.alicdn.com/imgextra/i3/2616970884/TB21pkXXevB11BjSspnXXbE.pXa-2616970884.jpg" style="line-height: 1.5;" class="img-ks-lazyload"&gt;&lt;img align="absmiddle" src="https://img.alicdn.com/imgextra/i2/2616970884/TB2HC2_XkTB11BjSspbXXbhcVXa-2616970884.jpg" style="line-height: 1.5;" class="img-ks-lazyload"&gt;&lt;img align="absmiddle" src="https://img.alicdn.com/imgextra/i4/2616970884/TB2fz3XXoTz11Bjy0FlXXX5BpXa-2616970884.jpg" style="line-height: 1.5;" class="img-ks-lazyload"&gt;&lt;img align="absmiddle" src="https://img.alicdn.com/imgextra/i1/2616970884/TB2p06_XdHC11BjSszeXXbZppXa-2616970884.jpg" style="line-height: 1.5;" class="img-ks-lazyload"&gt;&lt;img align="absmiddle" src="https://img.alicdn.com/imgextra/i2/2616970884/TB2H684XGLB11BjSspkXXcy9pXa-2616970884.jpg" style="line-height: 1.5;" class="img-ks-lazyload"&gt;&lt;img align="absmiddle" src="https://img.alicdn.com/imgextra/i4/2616970884/TB2VhI7XiKO.eBjSZPhXXXqcpXa-2616970884.jpg" style="line-height: 1.5;" class="img-ks-lazyload"&gt;&lt;/p&gt;&lt;/div&gt;</t>
   </si>
 </sst>
 </file>
@@ -84,7 +107,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="13"/>
       <color indexed="9"/>
       <name val="宋体"/>
@@ -94,12 +116,43 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -113,6 +166,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Helvetica"/>
@@ -121,14 +182,54 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,71 +249,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,22 +263,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -263,18 +285,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -287,6 +333,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -317,138 +417,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -518,36 +540,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="12"/>
       </left>
       <right style="thin">
@@ -577,65 +569,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="12"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color indexed="11"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color indexed="12"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,17 +608,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -689,157 +633,190 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -855,44 +832,32 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1022,20 +987,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>146050</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>451485</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1501140</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1583055</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1781175</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1440180</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1" descr="1"/>
+        <xdr:cNvPr id="5" name="图片 4" descr="listpic1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1048,8 +1013,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20403820" y="645795"/>
-          <a:ext cx="1355090" cy="1363980"/>
+          <a:off x="20318730" y="2459355"/>
+          <a:ext cx="1329690" cy="1335405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1061,19 +1026,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1939290</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>169545</xdr:rowOff>
+      <xdr:colOff>384810</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>113665</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>3390265</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1575435</xdr:rowOff>
+      <xdr:colOff>1695450</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1494790</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3" descr="TB2xJjbabWJ.eBjSspdXXXiXFXa_!!420567757.jpg_430x430q90"/>
+        <xdr:cNvPr id="11" name="图片 10" descr="banner1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1086,8 +1051,84 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22197060" y="596265"/>
-          <a:ext cx="1450975" cy="1405890"/>
+          <a:off x="22581870" y="2468245"/>
+          <a:ext cx="1310640" cy="1381125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1680845</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2986405</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1537335</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11" descr="banner2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23877905" y="2362200"/>
+          <a:ext cx="1305560" cy="1529715"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3099435</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>46990</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>4552950</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1481455</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12" descr="banner3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25296495" y="2401570"/>
+          <a:ext cx="1453515" cy="1434465"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1099,33 +1140,109 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>207645</xdr:rowOff>
+      <xdr:colOff>337185</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1713230</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1571625</xdr:rowOff>
+      <xdr:colOff>1666875</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1485900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2" descr="1"/>
+        <xdr:cNvPr id="14" name="图片 13" descr="list2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18286095" y="634365"/>
-          <a:ext cx="1355090" cy="1363980"/>
+          <a:off x="20204430" y="923925"/>
+          <a:ext cx="1329690" cy="1333500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>189230</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1504950</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1344295</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14" descr="20161221172055"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22448520" y="960755"/>
+          <a:ext cx="1253490" cy="1155065"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1870075</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3209290</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1447165</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16" descr="0161221171922"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24067135" y="971550"/>
+          <a:ext cx="1339215" cy="1247140"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1282,9 +1399,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -1363,7 +1480,7 @@
           </a:outerShdw>
         </a:effectLst>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1390,10 +1507,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-            <a:ea typeface="Calibri" panose="020F0502020204030204"/>
-            <a:cs typeface="Calibri" panose="020F0502020204030204"/>
-            <a:sym typeface="Calibri" panose="020F0502020204030204"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1646,9 +1763,9 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
+              <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -1929,7 +2046,7 @@
           <a:miter lim="400000"/>
         </a:ln>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1956,10 +2073,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-            <a:ea typeface="Calibri" panose="020F0502020204030204"/>
-            <a:cs typeface="Calibri" panose="020F0502020204030204"/>
-            <a:sym typeface="Calibri" panose="020F0502020204030204"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -2211,23 +2328,23 @@
   <sheetPr/>
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="30.575" style="1" customWidth="1"/>
-    <col min="2" max="2" width="52.9833333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="55.9833333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="53" style="1" customWidth="1"/>
     <col min="3" max="5" width="30.575" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29.4166666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.4416666666667" style="1" customWidth="1"/>
     <col min="7" max="8" width="30.575" style="1" customWidth="1"/>
-    <col min="9" max="9" width="61.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="61.2916666666667" style="1" customWidth="1"/>
     <col min="10" max="10" width="30.575" style="1" customWidth="1"/>
-    <col min="11" max="255" width="9" style="1" customWidth="1"/>
+    <col min="11" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33.6" customHeight="1" spans="1:10">
+    <row r="1" ht="60.75" customHeight="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2249,139 +2366,155 @@
       <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="175.8" customHeight="1" spans="1:10">
-      <c r="A2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="7">
-        <v>4250</v>
-      </c>
-      <c r="E2" s="7">
-        <v>250</v>
-      </c>
-      <c r="F2" s="7">
-        <v>1</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="15" t="s">
-        <v>14</v>
-      </c>
+    <row r="2" ht="150" hidden="1" customHeight="1" spans="1:10">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="12"/>
     </row>
-    <row r="3" ht="150" customHeight="1" spans="1:10">
-      <c r="A3" s="9"/>
+    <row r="3" ht="25" hidden="1" customHeight="1" spans="1:10">
+      <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="16"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="12"/>
     </row>
-    <row r="4" ht="25" customHeight="1" spans="1:10">
-      <c r="A4" s="9"/>
+    <row r="4" ht="25" hidden="1" customHeight="1" spans="1:10">
+      <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="16"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="12"/>
     </row>
-    <row r="5" ht="25" customHeight="1" spans="1:10">
-      <c r="A5" s="9"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
+    <row r="5" ht="25" hidden="1" customHeight="1" spans="1:10">
+      <c r="A5" s="5"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="16"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="12"/>
     </row>
-    <row r="6" ht="25" customHeight="1" spans="1:10">
-      <c r="A6" s="9"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="16"/>
+    <row r="6" ht="25" hidden="1" customHeight="1" spans="1:10">
+      <c r="A6" s="5"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="12"/>
     </row>
-    <row r="7" ht="25" customHeight="1" spans="1:10">
-      <c r="A7" s="9"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="16"/>
+    <row r="7" ht="25" hidden="1" customHeight="1" spans="1:10">
+      <c r="A7" s="5"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="12"/>
     </row>
-    <row r="8" ht="25" customHeight="1" spans="1:10">
-      <c r="A8" s="9"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="16"/>
+    <row r="8" ht="25" hidden="1" customHeight="1" spans="1:10">
+      <c r="A8" s="5"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="12"/>
     </row>
-    <row r="9" ht="25" customHeight="1" spans="1:10">
-      <c r="A9" s="9"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="16"/>
+    <row r="9" ht="124.65" customHeight="1" spans="1:10">
+      <c r="A9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="7">
+        <v>48340</v>
+      </c>
+      <c r="E9" s="7">
+        <v>45</v>
+      </c>
+      <c r="F9" s="7">
+        <v>1</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="13" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="10" ht="25" customHeight="1" spans="1:10">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="17"/>
+    <row r="10" ht="124.65" customHeight="1" spans="1:10">
+      <c r="A10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="7">
+        <v>5609</v>
+      </c>
+      <c r="E10" s="7">
+        <v>244</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="13" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/upload/xls/import_goods.xlsx
+++ b/upload/xls/import_goods.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="10350"/>
+    <workbookView windowWidth="28695" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -94,10 +94,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -116,28 +116,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,14 +137,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,63 +150,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,8 +171,72 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,7 +251,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,168 +285,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -454,18 +466,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,41 +569,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -625,10 +601,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -644,16 +618,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,157 +655,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -832,7 +832,7 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -841,19 +841,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -989,13 +980,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>451485</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1781175</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>1440180</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1013,7 +1004,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20318730" y="2459355"/>
+          <a:off x="20318730" y="2297430"/>
           <a:ext cx="1329690" cy="1335405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1027,13 +1018,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>384810</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>113665</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1695450</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>1494790</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1051,7 +1042,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22581870" y="2468245"/>
+          <a:off x="22581870" y="2306320"/>
           <a:ext cx="1310640" cy="1381125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1065,13 +1056,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1680845</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>2986405</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>1537335</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1089,7 +1080,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23877905" y="2362200"/>
+          <a:off x="23877905" y="2200275"/>
           <a:ext cx="1305560" cy="1529715"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1103,13 +1094,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>3099435</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>46990</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>4552950</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>1481455</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1127,7 +1118,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="25296495" y="2401570"/>
+          <a:off x="25296495" y="2239645"/>
           <a:ext cx="1453515" cy="1434465"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1141,13 +1132,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>337185</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1666875</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>1485900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1165,7 +1156,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20204430" y="923925"/>
+          <a:off x="20204430" y="762000"/>
           <a:ext cx="1329690" cy="1333500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1179,13 +1170,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>251460</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>189230</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1504950</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>1344295</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1203,7 +1194,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22448520" y="960755"/>
+          <a:off x="22448520" y="798830"/>
           <a:ext cx="1253490" cy="1155065"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1217,13 +1208,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1870075</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>3209290</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>1447165</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1241,7 +1232,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="24067135" y="971550"/>
+          <a:off x="24067135" y="809625"/>
           <a:ext cx="1339215" cy="1247140"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2326,13 +2317,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="55.9833333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="53" style="1" customWidth="1"/>
@@ -2344,7 +2335,7 @@
     <col min="11" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="60.75" customHeight="1" spans="1:10">
+    <row r="1" ht="48" customHeight="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2372,147 +2363,63 @@
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="150" hidden="1" customHeight="1" spans="1:10">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="12"/>
+    <row r="2" ht="124.65" customHeight="1" spans="1:10">
+      <c r="A2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="7">
+        <v>48340</v>
+      </c>
+      <c r="E2" s="7">
+        <v>45</v>
+      </c>
+      <c r="F2" s="7">
+        <v>1</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="10" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" ht="25" hidden="1" customHeight="1" spans="1:10">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="12"/>
-    </row>
-    <row r="4" ht="25" hidden="1" customHeight="1" spans="1:10">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="12"/>
-    </row>
-    <row r="5" ht="25" hidden="1" customHeight="1" spans="1:10">
-      <c r="A5" s="5"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="12"/>
-    </row>
-    <row r="6" ht="25" hidden="1" customHeight="1" spans="1:10">
-      <c r="A6" s="5"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="12"/>
-    </row>
-    <row r="7" ht="25" hidden="1" customHeight="1" spans="1:10">
-      <c r="A7" s="5"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="12"/>
-    </row>
-    <row r="8" ht="25" hidden="1" customHeight="1" spans="1:10">
-      <c r="A8" s="5"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="12"/>
-    </row>
-    <row r="9" ht="124.65" customHeight="1" spans="1:10">
-      <c r="A9" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="6" t="s">
+    <row r="3" ht="124.65" customHeight="1" spans="1:10">
+      <c r="A3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="7">
-        <v>48340</v>
-      </c>
-      <c r="E9" s="7">
-        <v>45</v>
-      </c>
-      <c r="F9" s="7">
+      <c r="D3" s="7">
+        <v>5609</v>
+      </c>
+      <c r="E3" s="7">
+        <v>244</v>
+      </c>
+      <c r="F3" s="7">
         <v>1</v>
       </c>
-      <c r="G9" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" ht="124.65" customHeight="1" spans="1:10">
-      <c r="A10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="7">
-        <v>5609</v>
-      </c>
-      <c r="E10" s="7">
-        <v>244</v>
-      </c>
-      <c r="F10" s="7">
-        <v>1</v>
-      </c>
-      <c r="G10" s="10" t="s">
+      <c r="G3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="13" t="s">
+      <c r="H3" s="8"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="10" t="s">
         <v>18</v>
       </c>
     </row>
